--- a/app/src/docs/bugs.xlsx
+++ b/app/src/docs/bugs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\android\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android\Workspace\SocialBusiness\app\src\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Webservice</t>
   </si>
@@ -104,6 +104,61 @@
   </si>
   <si>
     <t>doesn't update post picture. PostId:4 has 8 images in ImageOfPost</t>
+  </si>
+  <si>
+    <t>Update User Profile</t>
+  </si>
+  <si>
+    <t>Update Business Profile</t>
+  </si>
+  <si>
+    <t>Update Post</t>
+  </si>
+  <si>
+    <t>If picture changed, new image id must be created and old image id must be removed.</t>
+  </si>
+  <si>
+    <t>Implement Access Token</t>
+  </si>
+  <si>
+    <t>Let me Know if you did it.</t>
+  </si>
+  <si>
+    <t>Delete Post</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/deletePost/1/10</t>
+  </si>
+  <si>
+    <t>Error Code 10</t>
+  </si>
+  <si>
+    <t>Get User Profile Info</t>
+  </si>
+  <si>
+    <t>It should returns user profile picture as int not string</t>
+  </si>
+  <si>
+    <t>Follow business</t>
+  </si>
+  <si>
+    <t>it works fine but returns error</t>
+  </si>
+  <si>
+    <t>Get Wall's Posts (Timeline's Posts)</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/getWallPosts/3/0/20</t>
+  </si>
+  <si>
+    <t>userId:3 follows 2 businesses(business.id:1 &amp; business.id:2)
+business.id:1 has 4 posts 
+business.id:2 has 8 posts
+the webservice only returns 1 post (post.id:28). If I insert a record for post.id:28 in ImageOfPost
+table (PostId:28 &amp; lmageId:2022) the webservice returns [] as output</t>
+  </si>
+  <si>
+    <t>this not a bug. It is a new change</t>
   </si>
 </sst>
 </file>
@@ -126,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,30 +222,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,150 +566,201 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>42050</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="C14" s="11" t="s">
+    <row r="14" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="C16" s="11" t="s">
+    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>42051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>

--- a/app/src/docs/bugs.xlsx
+++ b/app/src/docs/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Webservice</t>
   </si>
@@ -159,6 +159,26 @@
   </si>
   <si>
     <t>this not a bug. It is a new change</t>
+  </si>
+  <si>
+    <t>right now creation date is like : CreationDate=1393/11/25
+it should be number of hours from creation time until present time in integer format</t>
+  </si>
+  <si>
+    <t>Get Business Posts
+Get Wall's Post
+Get Shared Post</t>
+  </si>
+  <si>
+    <t>Get business' posts</t>
+  </si>
+  <si>
+    <t>business.id: 2</t>
+  </si>
+  <si>
+    <t>post.id:5
+this post's comment_list has 4 comments while the post has only 2 comments
+comment_list should only return last three comments of the post</t>
   </si>
 </sst>
 </file>
@@ -213,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,6 +245,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -235,9 +258,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -261,6 +281,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,8 +592,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>42050</v>
       </c>
     </row>
@@ -639,123 +665,150 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="C14" s="8" t="s">
+    <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="C16" s="8" t="s">
+    <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>42051</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="20" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="16"/>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="16"/>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/docs/bugs.xlsx
+++ b/app/src/docs/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Webservice</t>
   </si>
@@ -180,12 +180,251 @@
 this post's comment_list has 4 comments while the post has only 2 comments
 comment_list should only return last three comments of the post</t>
   </si>
+  <si>
+    <t>Get business's reviews</t>
+  </si>
+  <si>
+    <t>When business has no reviews :: undefined error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I updated user profile once, It created 2 reocrd in ImageOfUser
+</t>
+  </si>
+  <si>
+    <t>{"Name":"sss","Email":"ali@gmail.com","Password":"111111",
+"CoverPicture":"","UserId":"3","ProfilePicture":"\/9j\/4....",
+"BirthDate":"1393\/02\/12","AboutMe":"aboout","Sex":"female"}</t>
+  </si>
+  <si>
+    <t>Second time it returns error:
+{"Error":{"ErrorCode":"Value cannot be null.\u000d\u000aParameter name: entity"},"Result":"False","SuccessStatus":false}
+I sent CoverPicture with ProfilePicture value but webservice returned same result.</t>
+  </si>
+  <si>
+    <t>Get Business profile info</t>
+  </si>
+  <si>
+    <t>return profilePicture and coverPicture as int not string</t>
+  </si>
+  <si>
+    <t>insert 0 in database</t>
+  </si>
+  <si>
+    <t>WorkTimeClose: "08:00"
+WorkTimeOpen: "22:00"</t>
+  </si>
+  <si>
+    <t>{"Error":{"ErrorCode":"Value cannot be null.\u000d\u000aParameter name: entity"},
+"Result":"False","SuccessStatus":false}</t>
+  </si>
+  <si>
+    <t>I added a post at 12:51 PM but the create date is 18:21 (post.id:29)</t>
+  </si>
+  <si>
+    <t>Description &amp; Code &amp; Title &amp; HashTag : persian characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">??????????? #?????  </t>
+  </si>
+  <si>
+    <t>Delete post</t>
+  </si>
+  <si>
+    <t>If you implement this webservice many times, a new record will be inserted each time.
+It doesn't check existing records.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://185.55.226.223:8081/bsn/getBusinessPosts/3/2/0/20
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">post.id:5
+this post's comment_list has 4 comments while the post has only 2 comments
+comment_list should only return last three comments of the post:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{\"UserId\":3,\"BusinessId\":0,\"CommentNumber\":2,\"LikeNumber\":0,\"ShareNumber\":0,\"UserName\":\"asdasda\",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\"PostId\":5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\"Title\":\"ytrtyuiolkjhg\",\"CreationDate\":\"-3237\",\"PostPictureId\":0,\"Code\":\"fd\",\"Price\":\"3456765\",\
+"Comments\":\"[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{\\\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CommentId\\\":1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,\\\"UserId\\\":1,\\\"UserName\\\":\\\"sss\\\",\\\"Text\\\":\\\"good\\\",\\\"ProfilePictureId\\\":0},
+{\\\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CommentId\\\":2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,\\\"UserId\\\":1,\\\"UserName\\\":\\\"sss\\\",\\\"Text\\\":\\\"Helllllllllow\\\",\\\"ProfilePictureId\\\":0},
+{\\\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CommentId\\\":5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,\\\"UserId\\\":1,\\\"UserName\\\":\\\"sss\\\",\\\"Text\\\":\\\"GOoooooooooooooooooood\\\",\\\"ProfilePictureId\\\":0},
+{\\\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CommentId\\\":4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\\\"UserId\\\":4,\\\"UserName\\\":\\\"ssssss\\\",\\\"Text\\\":\\\"OOOOOKKKKK\\\",\\\"ProfilePictureId\\\":0}]\",\"Description\":\"joe\",\"IsLiked\":false,\"HashTagList\":\"ej\"}
+]"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+first two comments are wrong</t>
+    </r>
+  </si>
+  <si>
+    <t>Update business profile</t>
+  </si>
+  <si>
+    <t>Error code 10</t>
+  </si>
+  <si>
+    <t>the time ir wrong</t>
+  </si>
+  <si>
+    <t>not fixed</t>
+  </si>
+  <si>
+    <t>http://185.55.226.223:8081/bsn/deletePost/2/38</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +439,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,47 +505,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,21 +819,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="65.85546875" customWidth="1"/>
     <col min="3" max="3" width="84.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -592,24 +844,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>42050</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -617,56 +869,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="4"/>
@@ -674,15 +926,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="4"/>
@@ -690,15 +945,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4"/>
@@ -706,113 +961,254 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>42051</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="D25" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:4" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>42052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="C43" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A3:A4"/>
